--- a/Resources/URLs_validated_comments.xlsx
+++ b/Resources/URLs_validated_comments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinevanglarsen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinevanglarsen/Desktop/Thesis/Code-git/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C87A71C-6F12-FE49-8908-02ECAF825C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370BD0D-1072-0B43-B9A7-53F4E16B5791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="500" windowWidth="22600" windowHeight="16480" xr2:uid="{1CCBA1CA-DFB6-2943-A3AD-F067ECCE4B44}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="22600" windowHeight="16380" xr2:uid="{1CCBA1CA-DFB6-2943-A3AD-F067ECCE4B44}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="483">
   <si>
     <t>URL</t>
   </si>
@@ -1498,6 +1498,9 @@
   </si>
   <si>
     <t>https://osf.io/btwgy/</t>
+  </si>
+  <si>
+    <t>https://www.humanconnectome.org/</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE14A782-DB1A-6641-930D-7A2CFD59EE10}">
   <dimension ref="A1:F394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2781,6 +2784,9 @@
       <c r="D62" t="s">
         <v>430</v>
       </c>
+      <c r="E62" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -2795,6 +2801,9 @@
       <c r="D63" t="s">
         <v>431</v>
       </c>
+      <c r="E63" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -2821,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D65" t="s">
         <v>434</v>
@@ -2856,6 +2865,9 @@
       </c>
       <c r="D67" t="s">
         <v>430</v>
+      </c>
+      <c r="E67" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
